--- a/Server/uploads/OAC/OAC-1233333/OAC_1233333.xlsx
+++ b/Server/uploads/OAC/OAC-1233333/OAC_1233333.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Hoja1" state="visible" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="156">
   <si>
     <t>O.A.C.  ORDEN DE ATENCION AL CLIENTE</t>
   </si>
@@ -31,10 +31,19 @@
     <t>TRABAJOS REALIZADOS EN RED DE BAJA TENSION O MEDIA TENSION</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
     <t>USUARIO:</t>
   </si>
   <si>
-    <t>MUSCARELLO MARIA MATILDE</t>
+    <t>RUARTE ROSA ARGENTINA</t>
   </si>
   <si>
     <t>FECHA :</t>
@@ -52,13 +61,13 @@
     <t>DIRECCION:</t>
   </si>
   <si>
-    <t>DIAGONAL SARMIENTO 841   43</t>
+    <t>PROYECTADA S/N C 8</t>
   </si>
   <si>
     <t>MEDIDOR N°:</t>
   </si>
   <si>
-    <t>1360975</t>
+    <t>03558893</t>
   </si>
   <si>
     <t>COMUNA  O DISTRITO:</t>
@@ -67,25 +76,25 @@
     <t>MOTIVO DE RECLAMO SAC N°/OT INTERNA:</t>
   </si>
   <si>
-    <t>Problema con el Alumbrado Público / SAC N°: 7</t>
+    <t>Rotura de Artefactos / SAC N°: 139</t>
   </si>
   <si>
     <t xml:space="preserve">BARRIO O VILLA: </t>
   </si>
   <si>
-    <t>84 - CENTRO</t>
+    <t>57 - BARRIO JUSTO P. CASTRO I</t>
   </si>
   <si>
     <t>CUENTA N°:</t>
   </si>
   <si>
-    <t>123</t>
+    <t>12</t>
   </si>
   <si>
     <t>SUMINISTRO N°:</t>
   </si>
   <si>
-    <t>1035001</t>
+    <t>57108000</t>
   </si>
   <si>
     <t>TELEFONO CLIENTE N°:</t>
@@ -124,12 +133,6 @@
     <t>CALIBRE FUSIBLE/SECC.CONDUCT</t>
   </si>
   <si>
-    <t>ABRIO</t>
-  </si>
-  <si>
-    <t>CERRO</t>
-  </si>
-  <si>
     <t>DESCRIPCION DE LA FALLA</t>
   </si>
   <si>
@@ -467,9 +470,6 @@
   </si>
   <si>
     <t>ATENDIO EN TERRENO OPERARIO:</t>
-  </si>
-  <si>
-    <t>………………………………………………………………………….      FIRMA OPERARIO</t>
   </si>
   <si>
     <t>HORARIO DE INICIO:</t>
@@ -574,10 +574,11 @@
     </font>
     <font>
       <b/>
-      <charset val="1"/>
       <color rgb="FF242424"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -2269,11 +2270,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -2721,14 +2724,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
@@ -2757,14 +2763,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
@@ -2820,11 +2829,13 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2844,11 +2855,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2880,11 +2893,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="107" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3234,15 +3249,15 @@
   <dimension ref="B1:P76"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="P61" sqref="P61"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="11.42578125"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25" defaultColWidth="11.42578125"/>
   <cols>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" customWidth="1"/>
     <col min="12" max="12" width="19.85546875" customWidth="1"/>
@@ -3385,17 +3400,23 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="27"/>
+      <c r="N9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" ht="19.5" customHeight="1" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C10" s="28" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
@@ -3404,26 +3425,26 @@
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M10" s="31"/>
       <c r="N10" s="32" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C11" s="28" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="29" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
@@ -3432,18 +3453,18 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="29" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P11" s="36"/>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C12" s="28" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="29"/>
@@ -3454,22 +3475,22 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P12" s="36"/>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C13" s="28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="29" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
@@ -3478,22 +3499,22 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="35" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="29" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="P13" s="36"/>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C14" s="28" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="37" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
@@ -3502,12 +3523,12 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="35" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="37" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P14" s="38"/>
     </row>
@@ -3529,7 +3550,7 @@
     </row>
     <row r="16" ht="24" customHeight="1" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C16" s="41" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
@@ -3547,32 +3568,32 @@
     </row>
     <row r="17" ht="21.75" customHeight="1" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" s="44" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="46" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F17" s="47"/>
       <c r="G17" s="45"/>
       <c r="H17" s="46" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I17" s="47"/>
       <c r="J17" s="45"/>
       <c r="K17" s="48" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L17" s="49"/>
       <c r="M17" s="50" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N17" s="51"/>
       <c r="O17" s="52" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P17" s="53" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="23.25" customHeight="1" spans="3:16" x14ac:dyDescent="0.25">
@@ -3585,10 +3606,10 @@
       <c r="I18" s="57"/>
       <c r="J18" s="55"/>
       <c r="K18" s="58" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L18" s="59" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M18" s="60"/>
       <c r="N18" s="61"/>
@@ -3596,12 +3617,8 @@
       <c r="P18" s="63"/>
     </row>
     <row r="19" ht="27.95" customHeight="1" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C19" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="65" t="s">
-        <v>36</v>
-      </c>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
       <c r="E19" s="66"/>
       <c r="F19" s="66"/>
       <c r="G19" s="66"/>
@@ -3616,12 +3633,8 @@
       <c r="P19" s="68"/>
     </row>
     <row r="20" ht="27.95" customHeight="1" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C20" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="65" t="s">
-        <v>36</v>
-      </c>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="69"/>
       <c r="F20" s="69"/>
       <c r="G20" s="69"/>
@@ -3636,12 +3649,8 @@
       <c r="P20" s="71"/>
     </row>
     <row r="21" ht="27.95" customHeight="1" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C21" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="65" t="s">
-        <v>36</v>
-      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="72"/>
       <c r="F21" s="72"/>
       <c r="G21" s="72"/>
@@ -3657,7 +3666,7 @@
     </row>
     <row r="22" ht="24" customHeight="1" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C22" s="75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D22" s="76"/>
       <c r="E22" s="76"/>
@@ -3707,7 +3716,7 @@
     </row>
     <row r="25" ht="24" customHeight="1" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C25" s="79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D25" s="80"/>
       <c r="E25" s="80"/>
@@ -3757,7 +3766,7 @@
     </row>
     <row r="28" ht="24" customHeight="1" spans="3:16" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D28" s="83"/>
       <c r="E28" s="83"/>
@@ -3769,12 +3778,12 @@
       <c r="K28" s="83"/>
       <c r="L28" s="83"/>
       <c r="M28" s="80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N28" s="83"/>
       <c r="O28" s="83"/>
       <c r="P28" s="81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="27.95" customHeight="1" spans="3:16" x14ac:dyDescent="0.25">
@@ -3789,7 +3798,7 @@
       <c r="K29" s="69"/>
       <c r="L29" s="69"/>
       <c r="M29" s="84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N29" s="84"/>
       <c r="O29" s="84"/>
@@ -3807,7 +3816,7 @@
       <c r="K30" s="69"/>
       <c r="L30" s="69"/>
       <c r="M30" s="84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N30" s="84"/>
       <c r="O30" s="84"/>
@@ -3815,7 +3824,7 @@
     </row>
     <row r="31" ht="24" customHeight="1" spans="3:16" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D31" s="80"/>
       <c r="E31" s="80"/>
@@ -3865,55 +3874,55 @@
     </row>
     <row r="34" ht="23.25" customHeight="1" spans="3:16" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D34" s="90"/>
       <c r="E34" s="91"/>
       <c r="F34" s="92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G34" s="90"/>
       <c r="H34" s="90"/>
       <c r="I34" s="91"/>
       <c r="J34" s="92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34" s="90"/>
       <c r="L34" s="90"/>
       <c r="M34" s="93"/>
       <c r="N34" s="94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O34" s="95"/>
       <c r="P34" s="96"/>
     </row>
     <row r="35" ht="18.75" customHeight="1" spans="3:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D35" s="99"/>
       <c r="E35" s="99"/>
       <c r="F35" s="100" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G35" s="101"/>
       <c r="H35" s="100" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I35" s="101"/>
       <c r="J35" s="100" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35" s="101"/>
       <c r="L35" s="100" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M35" s="102"/>
       <c r="N35" s="103" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O35" s="104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" s="105"/>
     </row>
@@ -3922,278 +3931,278 @@
       <c r="D36" s="107"/>
       <c r="E36" s="107"/>
       <c r="F36" s="108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G36" s="108" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="H36" s="108" t="s">
-        <v>54</v>
-      </c>
       <c r="I36" s="108" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="J36" s="108" t="s">
-        <v>54</v>
-      </c>
       <c r="K36" s="108" t="s">
+        <v>56</v>
+      </c>
+      <c r="L36" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="L36" s="108" t="s">
-        <v>54</v>
-      </c>
       <c r="M36" s="109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N36" s="110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O36" s="111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P36" s="112"/>
     </row>
     <row r="37" ht="21.75" customHeight="1" spans="2:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="113"/>
       <c r="C37" s="114" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D37" s="115" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E37" s="116"/>
       <c r="F37" s="117" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G37" s="118"/>
       <c r="H37" s="118" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I37" s="118"/>
       <c r="J37" s="118" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K37" s="118"/>
       <c r="L37" s="118" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M37" s="119"/>
       <c r="N37" s="110" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O37" s="111" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P37" s="112"/>
     </row>
     <row r="38" ht="21.75" customHeight="1" spans="3:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="120"/>
       <c r="D38" s="115" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E38" s="116"/>
       <c r="F38" s="121" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G38" s="69"/>
       <c r="H38" s="69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I38" s="69"/>
       <c r="J38" s="69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K38" s="69"/>
       <c r="L38" s="69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M38" s="122"/>
       <c r="N38" s="110" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O38" s="111" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P38" s="112"/>
     </row>
     <row r="39" ht="21.75" customHeight="1" spans="3:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="123"/>
       <c r="D39" s="115" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E39" s="116"/>
       <c r="F39" s="124" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G39" s="72"/>
       <c r="H39" s="72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I39" s="72"/>
       <c r="J39" s="72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K39" s="72"/>
       <c r="L39" s="72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M39" s="125"/>
       <c r="N39" s="110" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O39" s="111" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P39" s="112"/>
     </row>
     <row r="40" ht="21.75" customHeight="1" spans="3:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="126" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D40" s="127" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E40" s="127"/>
       <c r="F40" s="117" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G40" s="118"/>
       <c r="H40" s="118" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I40" s="118"/>
       <c r="J40" s="118" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K40" s="118"/>
       <c r="L40" s="118" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M40" s="119"/>
       <c r="N40" s="128" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O40" s="39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P40" s="129"/>
     </row>
     <row r="41" ht="21.75" customHeight="1" spans="3:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="130"/>
       <c r="D41" s="115" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E41" s="131"/>
       <c r="F41" s="124" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G41" s="72"/>
       <c r="H41" s="72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I41" s="72"/>
       <c r="J41" s="72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K41" s="72"/>
       <c r="L41" s="72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M41" s="132"/>
       <c r="N41" s="133" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O41" s="134"/>
       <c r="P41" s="135"/>
     </row>
     <row r="42" ht="21" customHeight="1" spans="3:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="136" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D42" s="127" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E42" s="131"/>
       <c r="F42" s="137" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G42" s="138"/>
       <c r="H42" s="138" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I42" s="138"/>
       <c r="J42" s="138" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K42" s="138"/>
       <c r="L42" s="138" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M42" s="139"/>
       <c r="N42" s="103" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O42" s="104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" s="140"/>
     </row>
     <row r="43" ht="21" customHeight="1" spans="3:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="141" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D43" s="142" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E43" s="143"/>
       <c r="F43" s="117" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G43" s="118"/>
       <c r="H43" s="118" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I43" s="118"/>
       <c r="J43" s="118" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K43" s="118"/>
       <c r="L43" s="118" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M43" s="119"/>
       <c r="N43" s="128" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O43" s="39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P43" s="129"/>
     </row>
     <row r="44" ht="21" customHeight="1" spans="3:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="144"/>
       <c r="D44" s="145" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E44" s="146"/>
       <c r="F44" s="121" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G44" s="69"/>
       <c r="H44" s="69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I44" s="69"/>
       <c r="J44" s="69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K44" s="69"/>
       <c r="L44" s="69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M44" s="147"/>
       <c r="N44" s="133" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O44" s="134"/>
       <c r="P44" s="135"/>
@@ -4201,279 +4210,279 @@
     <row r="45" ht="21" customHeight="1" spans="3:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="144"/>
       <c r="D45" s="145" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E45" s="146"/>
       <c r="F45" s="121" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G45" s="69"/>
       <c r="H45" s="69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I45" s="69"/>
       <c r="J45" s="69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K45" s="69"/>
       <c r="L45" s="69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M45" s="69"/>
       <c r="N45" s="148" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O45" s="104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" s="140"/>
     </row>
     <row r="46" ht="21" customHeight="1" spans="3:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="144"/>
       <c r="D46" s="145" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E46" s="146"/>
       <c r="F46" s="121" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G46" s="69"/>
       <c r="H46" s="69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I46" s="69"/>
       <c r="J46" s="69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K46" s="69"/>
       <c r="L46" s="69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M46" s="69"/>
       <c r="N46" s="110" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O46" s="111" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P46" s="112"/>
     </row>
     <row r="47" ht="21" customHeight="1" spans="3:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="144"/>
       <c r="D47" s="145" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E47" s="146"/>
       <c r="F47" s="121" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G47" s="69"/>
       <c r="H47" s="69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I47" s="69"/>
       <c r="J47" s="69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K47" s="69"/>
       <c r="L47" s="149" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M47" s="69"/>
       <c r="N47" s="110" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O47" s="111" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P47" s="112"/>
     </row>
     <row r="48" ht="21" customHeight="1" spans="3:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="144"/>
       <c r="D48" s="145" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E48" s="146"/>
       <c r="F48" s="121" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G48" s="69"/>
       <c r="H48" s="69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I48" s="149"/>
       <c r="J48" s="69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K48" s="122"/>
       <c r="L48" s="150" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M48" s="151"/>
       <c r="N48" s="110" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O48" s="111" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P48" s="112"/>
     </row>
     <row r="49" ht="21" customHeight="1" spans="3:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="152"/>
       <c r="D49" s="153" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E49" s="154"/>
       <c r="F49" s="155" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G49" s="149"/>
       <c r="H49" s="149" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I49" s="156"/>
       <c r="J49" s="149" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K49" s="157"/>
       <c r="L49" s="158" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M49" s="159"/>
       <c r="N49" s="110" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O49" s="111" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P49" s="112"/>
     </row>
     <row r="50" ht="27.95" customHeight="1" spans="3:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="160" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D50" s="161"/>
       <c r="E50" s="162" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F50" s="104"/>
       <c r="G50" s="104"/>
       <c r="H50" s="104"/>
       <c r="I50" s="161"/>
       <c r="J50" s="162" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K50" s="104"/>
       <c r="M50" s="104"/>
       <c r="N50" s="104"/>
       <c r="O50" s="161"/>
       <c r="P50" s="140" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" ht="27.95" customHeight="1" spans="3:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="163"/>
       <c r="D51" s="164"/>
       <c r="E51" s="165" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F51" s="111"/>
       <c r="G51" s="111"/>
       <c r="H51" s="111"/>
       <c r="I51" s="164"/>
       <c r="J51" s="165" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K51" s="111"/>
       <c r="M51" s="111"/>
       <c r="N51" s="111"/>
       <c r="O51" s="164"/>
       <c r="P51" s="112" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" ht="27.95" customHeight="1" spans="3:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="163"/>
       <c r="D52" s="164"/>
       <c r="E52" s="165" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F52" s="111"/>
       <c r="G52" s="111"/>
       <c r="H52" s="111"/>
       <c r="I52" s="164"/>
       <c r="J52" s="165" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K52" s="111"/>
       <c r="M52" s="111"/>
       <c r="N52" s="111"/>
       <c r="O52" s="166"/>
       <c r="P52" s="112" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" ht="27.95" customHeight="1" spans="3:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="163"/>
       <c r="D53" s="164"/>
       <c r="E53" s="165" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F53" s="111"/>
       <c r="G53" s="111"/>
       <c r="H53" s="111"/>
       <c r="I53" s="164"/>
       <c r="J53" s="165" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K53" s="111"/>
       <c r="M53" s="111"/>
       <c r="N53" s="111"/>
       <c r="O53" s="166"/>
       <c r="P53" s="112" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" ht="27.95" customHeight="1" spans="3:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="163"/>
       <c r="D54" s="164"/>
       <c r="E54" s="165" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F54" s="111"/>
       <c r="G54" s="111"/>
       <c r="H54" s="111"/>
       <c r="I54" s="164"/>
       <c r="J54" s="165" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K54" s="111"/>
       <c r="M54" s="111"/>
       <c r="N54" s="111"/>
       <c r="O54" s="166"/>
       <c r="P54" s="112" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" ht="27.95" customHeight="1" spans="3:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="167"/>
       <c r="D55" s="164"/>
       <c r="E55" s="165" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F55" s="111"/>
       <c r="G55" s="111"/>
       <c r="H55" s="111"/>
       <c r="I55" s="164"/>
       <c r="J55" s="165" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K55" s="111"/>
       <c r="M55" s="111"/>
       <c r="N55" s="111"/>
       <c r="O55" s="166"/>
       <c r="P55" s="168" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="56" ht="27.95" customHeight="1" spans="3:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
@@ -4490,32 +4499,32 @@
     </row>
     <row r="57" ht="27.95" customHeight="1" spans="3:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="141" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D57" s="111"/>
       <c r="E57" s="161"/>
       <c r="F57" s="111" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G57" s="161"/>
       <c r="H57" s="111" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I57" s="161"/>
       <c r="J57" s="111" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K57" s="161"/>
       <c r="L57" s="111" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M57" s="161"/>
       <c r="N57" s="111" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O57" s="161"/>
       <c r="P57" s="112" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" ht="9.95" customHeight="1" spans="3:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
@@ -4539,27 +4548,27 @@
       <c r="D59" s="111"/>
       <c r="E59" s="161"/>
       <c r="F59" s="111" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G59" s="161"/>
       <c r="H59" s="111" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I59" s="161"/>
       <c r="J59" s="111" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K59" s="161"/>
       <c r="L59" s="111" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M59" s="161"/>
       <c r="N59" s="111" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O59" s="161"/>
       <c r="P59" s="112" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" ht="9.95" customHeight="1" spans="3:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
@@ -4583,32 +4592,32 @@
       <c r="D61" s="39"/>
       <c r="E61" s="161"/>
       <c r="F61" s="39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G61" s="161"/>
       <c r="H61" s="39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I61" s="161"/>
       <c r="J61" s="39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K61" s="161"/>
       <c r="L61" s="39" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M61" s="161"/>
       <c r="N61" s="39" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O61" s="161"/>
       <c r="P61" s="129" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" ht="18.75" customHeight="1" spans="3:16" s="175" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="176" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D62" s="177"/>
       <c r="E62" s="178"/>
@@ -4643,36 +4652,36 @@
     <row r="64" ht="18.75" customHeight="1" spans="3:16" s="175" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="196"/>
       <c r="D64" s="197" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E64" s="198"/>
       <c r="F64" s="199"/>
       <c r="G64" s="200" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H64" s="201"/>
       <c r="I64" s="202"/>
       <c r="J64" s="200" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K64" s="201"/>
       <c r="L64" s="202"/>
       <c r="M64" s="203" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N64" s="203" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O64" s="203" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P64" s="204" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" ht="18.75" customHeight="1" spans="3:16" s="175" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="126" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D65" s="205"/>
       <c r="E65" s="206"/>
@@ -4707,36 +4716,36 @@
     <row r="67" ht="18.75" customHeight="1" spans="3:16" s="175" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C67" s="218"/>
       <c r="D67" s="219" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E67" s="220"/>
       <c r="F67" s="221"/>
       <c r="G67" s="219" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H67" s="220"/>
       <c r="I67" s="221"/>
       <c r="J67" s="219" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K67" s="220"/>
       <c r="L67" s="221"/>
       <c r="M67" s="222" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N67" s="222" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O67" s="222" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P67" s="204" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1" spans="3:16" s="175" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C68" s="223" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D68" s="224"/>
       <c r="E68" s="225"/>
@@ -4787,62 +4796,60 @@
     <row r="71" ht="15.75" customHeight="1" spans="3:16" s="175" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C71" s="233"/>
       <c r="D71" s="243" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E71" s="244"/>
       <c r="F71" s="244"/>
       <c r="G71" s="245"/>
       <c r="H71" s="243" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I71" s="244"/>
       <c r="J71" s="244"/>
       <c r="K71" s="246"/>
       <c r="L71" s="247" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M71" s="248"/>
       <c r="N71" s="249"/>
       <c r="O71" s="250" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P71" s="251" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" ht="21" customHeight="1" spans="3:16" s="175" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C72" s="252"/>
       <c r="D72" s="253"/>
       <c r="E72" s="254" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F72" s="255"/>
       <c r="G72" s="253"/>
       <c r="H72" s="256" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I72" s="256"/>
       <c r="J72" s="253"/>
       <c r="K72" s="257" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L72" s="257"/>
       <c r="M72" s="253"/>
       <c r="N72" s="257" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O72" s="258" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P72" s="259"/>
     </row>
     <row r="73" ht="18.75" customHeight="1" spans="3:16" s="97" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C73" s="141" t="s">
-        <v>149</v>
-      </c>
-      <c r="D73" s="260" t="s">
         <v>150</v>
       </c>
+      <c r="D73" s="260"/>
       <c r="E73" s="261"/>
       <c r="F73" s="261"/>
       <c r="G73" s="261"/>
@@ -4915,7 +4922,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" algorithmName="SHA-512" hashValue="x4pyrg7+NCRFAfr3MlCvyRkKx4KCWfBOZEz1JVMPVJ+MLHfZZsIHjTycGCNIpCyKex1QO0amOqnKmfEmKDBv8g==" saltValue="pbWIw7L473KCQJ+4ZbvALg==" spinCount="100000" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" algorithmName="SHA-512" hashValue="ZvaOZE6sO8kUz1qYT4OjQ6/csdj5m9k2rZDneJD7pHKar8vHHfsAr/9zR/ChjY8kHOt23vsXnlaPYIeePcjaBg==" saltValue="rohdwgEFSn6iq/oaO9h9VA==" spinCount="100000" objects="1" scenarios="1"/>
   <mergeCells count="101">
     <mergeCell ref="K3:P5"/>
     <mergeCell ref="H6:I6"/>
